--- a/docs/Cycle 1/Budget - Cycle 1.xlsx
+++ b/docs/Cycle 1/Budget - Cycle 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Part</t>
   </si>
@@ -197,6 +197,12 @@
   </si>
   <si>
     <t>Wii Camera Lens Kit</t>
+  </si>
+  <si>
+    <t>JST 4-pin connectors</t>
+  </si>
+  <si>
+    <t>Compass to  Quadcopter</t>
   </si>
 </sst>
 </file>
@@ -600,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,13 +1352,23 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
+      <c r="A41" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="D41" s="5"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="9"/>
+      <c r="E41" s="6">
+        <v>2</v>
+      </c>
+      <c r="F41" s="7">
+        <v>4</v>
+      </c>
+      <c r="G41" s="9">
+        <v>8</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1364,8 +1380,8 @@
       <c r="E42" s="2"/>
       <c r="F42" s="3"/>
       <c r="G42" s="12">
-        <f>SUBTOTAL(109,'Senior Design Costs '!$G$3:$G$40)</f>
-        <v>214.97999999999996</v>
+        <f>SUBTOTAL(109,'Senior Design Costs '!$G$3:$G$41)</f>
+        <v>222.97999999999996</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1377,7 +1393,7 @@
       </c>
       <c r="G43" s="9">
         <f>G44-'Senior Design Costs '!$G$42</f>
-        <v>35.020000000000039</v>
+        <v>27.020000000000039</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">

--- a/docs/Cycle 1/Budget - Cycle 1.xlsx
+++ b/docs/Cycle 1/Budget - Cycle 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>Part</t>
   </si>
@@ -197,12 +197,6 @@
   </si>
   <si>
     <t>Wii Camera Lens Kit</t>
-  </si>
-  <si>
-    <t>JST 4-pin connectors</t>
-  </si>
-  <si>
-    <t>Compass to  Quadcopter</t>
   </si>
 </sst>
 </file>
@@ -606,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,10 +1026,12 @@
       <c r="E23" s="6">
         <v>1</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <v>14</v>
+      </c>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1352,23 +1348,13 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="6">
-        <v>2</v>
-      </c>
-      <c r="F41" s="7">
-        <v>4</v>
-      </c>
-      <c r="G41" s="9">
-        <v>8</v>
-      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1380,8 +1366,8 @@
       <c r="E42" s="2"/>
       <c r="F42" s="3"/>
       <c r="G42" s="12">
-        <f>SUBTOTAL(109,'Senior Design Costs '!$G$3:$G$41)</f>
-        <v>222.97999999999996</v>
+        <f>SUBTOTAL(109,'Senior Design Costs '!$G$3:$G$40)</f>
+        <v>228.98000000000002</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1393,7 +1379,7 @@
       </c>
       <c r="G43" s="9">
         <f>G44-'Senior Design Costs '!$G$42</f>
-        <v>27.020000000000039</v>
+        <v>21.019999999999982</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
